--- a/src/main/resources/testdesign/bin/templates/ExecutionSummaryReport.xlsx
+++ b/src/main/resources/testdesign/bin/templates/ExecutionSummaryReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Others/DNA/TestFrame/Bin/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/bin/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_ECBD7786BF3AF10C6DE00241D5BE49B44F524C95" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_ECBD7786BF3AF10C6DE00241D5BE49B44F524C95" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0ED50FF4-0C8A-4866-95FE-835B4619EF81}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="VerificationDetail" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VerificationDetail!$D$1:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VerificationDetail!$C$1:$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Start Time</t>
   </si>
@@ -104,12 +104,6 @@
     <t xml:space="preserve">StepDescription </t>
   </si>
   <si>
-    <t>Screen  Shot Link</t>
-  </si>
-  <si>
-    <t>Report Link</t>
-  </si>
-  <si>
     <t>Script Passed</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>servacct</t>
   </si>
   <si>
-    <t>4.5.1</t>
-  </si>
-  <si>
     <t>Total Checkpoint</t>
   </si>
   <si>
@@ -164,13 +155,13 @@
     <t>Script Abort</t>
   </si>
   <si>
-    <t>DNACREATOR</t>
-  </si>
-  <si>
-    <t>DNA Virtual Machine Immage Test Environment</t>
-  </si>
-  <si>
-    <t>Microsoft Windows 2008 R2 Server</t>
+    <t>ReportLink</t>
+  </si>
+  <si>
+    <t>ScreenShotLink</t>
+  </si>
+  <si>
+    <t>Republic UAT</t>
   </si>
 </sst>
 </file>
@@ -1531,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,65 +1552,49 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="2:15" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>34</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1467</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="2:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11">
-        <v>43586.965798611112</v>
-      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
-        <v>43586.966504629629</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="19">
-        <v>7.0601851851851847E-4</v>
-      </c>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -1651,46 +1626,46 @@
     </row>
     <row r="9" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="O9" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -1838,24 +1813,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="5" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -1878,39 +1854,42 @@
         <v>2</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
   </sheetData>
@@ -1934,41 +1913,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IP23"/>
+  <dimension ref="A1:IO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:249" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>22</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -2212,90 +2188,87 @@
       <c r="IM1" s="14"/>
       <c r="IN1" s="14"/>
       <c r="IO1" s="14"/>
-      <c r="IP1" s="14"/>
-    </row>
-    <row r="2" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="B2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="C6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:250" x14ac:dyDescent="0.25">
-      <c r="C16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="17"/>
+    </row>
+    <row r="2" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:249" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="C1:C23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2490,8 +2463,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35B5751F-E67A-4B55-8AE7-65891CA57DA4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef0742cd-bd40-46dd-8e3c-0a1447a408d1"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/main/resources/testdesign/bin/templates/ExecutionSummaryReport.xlsx
+++ b/src/main/resources/testdesign/bin/templates/ExecutionSummaryReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/bin/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_ECBD7786BF3AF10C6DE00241D5BE49B44F524C95" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0ED50FF4-0C8A-4866-95FE-835B4619EF81}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_ECBD7786BF3AF10C6DE00241D5BE49B44F524C95" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E7E4AC65-955B-497F-9883-B2DF10000EC3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="VerificationDetail" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VerificationDetail!$C$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VerificationDetail!$C$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,9 +101,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t xml:space="preserve">StepDescription </t>
-  </si>
-  <si>
     <t>Script Passed</t>
   </si>
   <si>
@@ -162,13 +159,16 @@
   </si>
   <si>
     <t>Republic UAT</t>
+  </si>
+  <si>
+    <t>StepDescription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,14 +208,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -314,12 +306,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,28 +349,25 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,10 +380,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1522,49 +1509,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="21" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="21" t="s">
-        <v>26</v>
+      <c r="F3" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="G3" s="9"/>
     </row>
@@ -1580,7 +1569,7 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1592,7 +1581,7 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -1607,115 +1596,115 @@
       <c r="I6" s="3"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="20">
+      <c r="C10" s="15"/>
+      <c r="D10" s="17">
         <f>SUM(E10:F10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <f>COUNTIFS(TestsDetail!I:I,C10,TestsDetail!B:B,"No Run")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <f>SUM(G10:I10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="20">
-        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Pass")</f>
+      <c r="G10" s="17">
+        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Passed")</f>
         <v>0</v>
       </c>
-      <c r="H10" s="20">
-        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Fail")</f>
+      <c r="H10" s="17">
+        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Failed")</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="17">
         <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Abort")</f>
         <v>0</v>
       </c>
-      <c r="J10" s="23" t="str">
+      <c r="J10" s="20" t="str">
         <f>IFERROR(G10/F10, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="17">
         <f>SUMIFS(TestsDetail!$H:$H,TestsDetail!$I:$I,C10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="17">
         <f>SUMIFS(TestsDetail!$F:$F,TestsDetail!$I:$I,C10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="17">
         <f>SUMIFS(TestsDetail!$G:$G,TestsDetail!$I:$I,C10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="17">
         <f>K10-(L10+M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="23" t="str">
+      <c r="O10" s="20" t="str">
         <f>IFERROR(L10/K10, "NA")</f>
         <v>NA</v>
       </c>
@@ -1749,7 +1738,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="25" t="str">
+      <c r="J11" s="22" t="str">
         <f>IFERROR(G11/F11, "NA")</f>
         <v>NA</v>
       </c>
@@ -1769,7 +1758,7 @@
         <f>SUM(N10:N10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="25" t="str">
+      <c r="O11" s="22" t="str">
         <f>IFERROR(L11/K11, "NA")</f>
         <v>NA</v>
       </c>
@@ -1813,9 +1802,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
@@ -1854,58 +1843,24 @@
         <v>2</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10"/>
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Pass">
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"Core Processing, EFT, Interfaces, Lender, Member, RSP/IRA, Systems, Teller"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1913,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IO23"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1883,7 @@
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:249" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -1939,336 +1894,14 @@
         <v>20</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
-      <c r="CU1" s="14"/>
-      <c r="CV1" s="14"/>
-      <c r="CW1" s="14"/>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="14"/>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="14"/>
-      <c r="DX1" s="14"/>
-      <c r="DY1" s="14"/>
-      <c r="DZ1" s="14"/>
-      <c r="EA1" s="14"/>
-      <c r="EB1" s="14"/>
-      <c r="EC1" s="14"/>
-      <c r="ED1" s="14"/>
-      <c r="EE1" s="14"/>
-      <c r="EF1" s="14"/>
-      <c r="EG1" s="14"/>
-      <c r="EH1" s="14"/>
-      <c r="EI1" s="14"/>
-      <c r="EJ1" s="14"/>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14"/>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
-      <c r="EZ1" s="14"/>
-      <c r="FA1" s="14"/>
-      <c r="FB1" s="14"/>
-      <c r="FC1" s="14"/>
-      <c r="FD1" s="14"/>
-      <c r="FE1" s="14"/>
-      <c r="FF1" s="14"/>
-      <c r="FG1" s="14"/>
-      <c r="FH1" s="14"/>
-      <c r="FI1" s="14"/>
-      <c r="FJ1" s="14"/>
-      <c r="FK1" s="14"/>
-      <c r="FL1" s="14"/>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="14"/>
-      <c r="FQ1" s="14"/>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14"/>
-      <c r="FT1" s="14"/>
-      <c r="FU1" s="14"/>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14"/>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
-      <c r="GM1" s="14"/>
-      <c r="GN1" s="14"/>
-      <c r="GO1" s="14"/>
-      <c r="GP1" s="14"/>
-      <c r="GQ1" s="14"/>
-      <c r="GR1" s="14"/>
-      <c r="GS1" s="14"/>
-      <c r="GT1" s="14"/>
-      <c r="GU1" s="14"/>
-      <c r="GV1" s="14"/>
-      <c r="GW1" s="14"/>
-      <c r="GX1" s="14"/>
-      <c r="GY1" s="14"/>
-      <c r="GZ1" s="14"/>
-      <c r="HA1" s="14"/>
-      <c r="HB1" s="14"/>
-      <c r="HC1" s="14"/>
-      <c r="HD1" s="14"/>
-      <c r="HE1" s="14"/>
-      <c r="HF1" s="14"/>
-      <c r="HG1" s="14"/>
-      <c r="HH1" s="14"/>
-      <c r="HI1" s="14"/>
-      <c r="HJ1" s="14"/>
-      <c r="HK1" s="14"/>
-      <c r="HL1" s="14"/>
-      <c r="HM1" s="14"/>
-      <c r="HN1" s="14"/>
-      <c r="HO1" s="14"/>
-      <c r="HP1" s="14"/>
-      <c r="HQ1" s="14"/>
-      <c r="HR1" s="14"/>
-      <c r="HS1" s="14"/>
-      <c r="HT1" s="14"/>
-      <c r="HU1" s="14"/>
-      <c r="HV1" s="14"/>
-      <c r="HW1" s="14"/>
-      <c r="HX1" s="14"/>
-      <c r="HY1" s="14"/>
-      <c r="HZ1" s="14"/>
-      <c r="IA1" s="14"/>
-      <c r="IB1" s="14"/>
-      <c r="IC1" s="14"/>
-      <c r="ID1" s="14"/>
-      <c r="IE1" s="14"/>
-      <c r="IF1" s="14"/>
-      <c r="IG1" s="14"/>
-      <c r="IH1" s="14"/>
-      <c r="II1" s="14"/>
-      <c r="IJ1" s="14"/>
-      <c r="IK1" s="14"/>
-      <c r="IL1" s="14"/>
-      <c r="IM1" s="14"/>
-      <c r="IN1" s="14"/>
-      <c r="IO1" s="14"/>
-    </row>
-    <row r="2" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:249" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="17"/>
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="C1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2280,15 +1913,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100664AA0024D3FA642B877769BDE9FF2AC" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="830eb165f37d417529f2c6cf9298a0a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef0742cd-bd40-46dd-8e3c-0a1447a408d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2481fcaa9012408a6add253d8661c7ce" ns2:_="">
     <xsd:import namespace="ef0742cd-bd40-46dd-8e3c-0a1447a408d1"/>
@@ -2460,6 +2084,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35B5751F-E67A-4B55-8AE7-65891CA57DA4}">
   <ds:schemaRefs>
@@ -2477,14 +2110,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C627ECED-6539-43EE-85BB-9AAD1E781F8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F56D9AD-AA78-4997-A1F8-22ED1E314978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2500,4 +2125,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C627ECED-6539-43EE-85BB-9AAD1E781F8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/testdesign/bin/templates/ExecutionSummaryReport.xlsx
+++ b/src/main/resources/testdesign/bin/templates/ExecutionSummaryReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/bin/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_ECBD7786BF3AF10C6DE00241D5BE49B44F524C95" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E7E4AC65-955B-497F-9883-B2DF10000EC3}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_ECBD7786BF3AF10C6DE00241D5BE49B44F524C95" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{16E3775C-FD98-4A0F-BD86-EE9747DB45A1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1510,7 +1510,7 @@
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,11 +1673,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="17">
-        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Passed")</f>
+        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Pass")</f>
         <v>0</v>
       </c>
       <c r="H10" s="17">
-        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Failed")</f>
+        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Fail")</f>
         <v>0</v>
       </c>
       <c r="I10" s="17">
@@ -1804,9 +1804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,12 +1907,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100664AA0024D3FA642B877769BDE9FF2AC" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="830eb165f37d417529f2c6cf9298a0a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef0742cd-bd40-46dd-8e3c-0a1447a408d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2481fcaa9012408a6add253d8661c7ce" ns2:_="">
     <xsd:import namespace="ef0742cd-bd40-46dd-8e3c-0a1447a408d1"/>
@@ -2084,6 +2078,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2094,22 +2094,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35B5751F-E67A-4B55-8AE7-65891CA57DA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef0742cd-bd40-46dd-8e3c-0a1447a408d1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F56D9AD-AA78-4997-A1F8-22ED1E314978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2127,6 +2111,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35B5751F-E67A-4B55-8AE7-65891CA57DA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef0742cd-bd40-46dd-8e3c-0a1447a408d1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C627ECED-6539-43EE-85BB-9AAD1E781F8E}">
   <ds:schemaRefs>

--- a/src/main/resources/testdesign/bin/templates/ExecutionSummaryReport.xlsx
+++ b/src/main/resources/testdesign/bin/templates/ExecutionSummaryReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/bin/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\bin\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_ECBD7786BF3AF10C6DE00241D5BE49B44F524C95" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E7E4AC65-955B-497F-9883-B2DF10000EC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B8E364-C309-41F1-8A9D-32C26B2BF8F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1510,7 +1510,7 @@
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,11 +1673,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="17">
-        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Passed")</f>
+        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Pass")</f>
         <v>0</v>
       </c>
       <c r="H10" s="17">
-        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Failed")</f>
+        <f>COUNTIFS(TestsDetail!I:I,C10, TestsDetail!B:B,"Fail")</f>
         <v>0</v>
       </c>
       <c r="I10" s="17">
@@ -1907,12 +1907,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100664AA0024D3FA642B877769BDE9FF2AC" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="830eb165f37d417529f2c6cf9298a0a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef0742cd-bd40-46dd-8e3c-0a1447a408d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2481fcaa9012408a6add253d8661c7ce" ns2:_="">
     <xsd:import namespace="ef0742cd-bd40-46dd-8e3c-0a1447a408d1"/>
@@ -2084,6 +2078,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2094,22 +2094,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35B5751F-E67A-4B55-8AE7-65891CA57DA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef0742cd-bd40-46dd-8e3c-0a1447a408d1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F56D9AD-AA78-4997-A1F8-22ED1E314978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2127,6 +2111,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35B5751F-E67A-4B55-8AE7-65891CA57DA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef0742cd-bd40-46dd-8e3c-0a1447a408d1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C627ECED-6539-43EE-85BB-9AAD1E781F8E}">
   <ds:schemaRefs>
